--- a/teams-and-rosters/CS320-Sp22-101-roster.xlsx
+++ b/teams-and-rosters/CS320-Sp22-101-roster.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs320-spring2022\teams-and-rosters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\djhake2\cs320-spring2022\teams-and-rosters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFA65D2-0A5E-4AE9-AE52-6476B4DD0184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="20844" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="20850" windowHeight="12030"/>
   </bookViews>
   <sheets>
     <sheet name="CS320-Sp22-101-roster" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Last Name</t>
   </si>
@@ -170,12 +169,33 @@
   </si>
   <si>
     <t>CE</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Metzger</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>ametzger@ycp.edu</t>
+  </si>
+  <si>
+    <t>Abdalla</t>
+  </si>
+  <si>
+    <t>gabdalla@ycp.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -692,11 +712,11 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -833,23 +853,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -885,23 +888,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1077,39 +1063,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.83984375" customWidth="1"/>
-    <col min="3" max="3" width="11.578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.68359375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.68359375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.75">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1126,224 +1112,258 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A8" s="7" t="s">
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="7" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="7" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="7" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1351,7 +1371,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E14" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/teams-and-rosters/CS320-Sp22-101-roster.xlsx
+++ b/teams-and-rosters/CS320-Sp22-101-roster.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\djhake2\cs320-spring2022\teams-and-rosters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs320-spring2022-private\Rosters\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEEB850-2C25-44B2-A23A-A71349DB3A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="20850" windowHeight="12030"/>
+    <workbookView xWindow="588" yWindow="1206" windowWidth="22452" windowHeight="11754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS320-Sp22-101-roster" sheetId="1" r:id="rId1"/>
@@ -195,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -697,7 +698,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,6 +720,7 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -853,6 +855,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -888,6 +907,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1063,23 +1099,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E4" sqref="E4:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.83984375" customWidth="1"/>
+    <col min="3" max="3" width="11.578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.68359375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -1088,14 +1124,14 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>55</v>
       </c>
@@ -1125,11 +1161,11 @@
       <c r="D4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1142,11 +1178,11 @@
       <c r="D5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1159,11 +1195,11 @@
       <c r="D6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -1176,11 +1212,11 @@
       <c r="D7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1193,11 +1229,11 @@
       <c r="D8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1210,11 +1246,11 @@
       <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -1227,11 +1263,11 @@
       <c r="D10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -1244,11 +1280,11 @@
       <c r="D11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
@@ -1261,11 +1297,11 @@
       <c r="D12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -1278,11 +1314,11 @@
       <c r="D13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6" t="s">
         <v>51</v>
       </c>
@@ -1295,11 +1331,11 @@
       <c r="D14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -1312,11 +1348,11 @@
       <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1329,11 +1365,11 @@
       <c r="D16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -1346,11 +1382,11 @@
       <c r="D17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
@@ -1363,7 +1399,7 @@
       <c r="D18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1372,8 +1408,8 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E14" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/teams-and-rosters/CS320-Sp22-101-roster.xlsx
+++ b/teams-and-rosters/CS320-Sp22-101-roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs320-spring2022-private\Rosters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs320-spring2022-private\rosters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEEB850-2C25-44B2-A23A-A71349DB3A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A70A44A-9D27-4DB4-8DE9-C883BA1A2835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="588" yWindow="1206" windowWidth="22452" windowHeight="11754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="894" yWindow="450" windowWidth="22026" windowHeight="11784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS320-Sp22-101-roster" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>E-Mail</t>
   </si>
   <si>
-    <t>CS320 Section 101 (MWF 8:00 - 8:50)</t>
-  </si>
-  <si>
     <t>Barthelmes</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>gabdalla@ycp.edu</t>
+  </si>
+  <si>
+    <t>CS320 Section 101 (M-W-F 8:00 - 8:50)</t>
   </si>
 </sst>
 </file>
@@ -717,10 +717,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E18"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1116,13 +1116,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.75">
-      <c r="A1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="4"/>
@@ -1150,257 +1150,257 @@
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="C12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>47</v>
+      <c r="E18" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
